--- a/drg_mapping/v24 drg.xlsx
+++ b/drg_mapping/v24 drg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariagraziacicala/Desktop/ica_cost2/drg_mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62791AF-DC69-8149-A1AD-35AF9836FE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E95FF95-AF01-E34E-91C2-5D32AA5F8E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1460" yWindow="500" windowWidth="23520" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="1735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="1731">
   <si>
     <t>Classificazione Diagnosis Related Groups versione 24</t>
   </si>
@@ -1887,22 +1887,10 @@
     <t>C</t>
   </si>
   <si>
-    <t>Interventi sulle vie biliari eccetto colecistectomia isolata con o senza</t>
-  </si>
-  <si>
     <t>3,6085</t>
   </si>
   <si>
-    <t>esplorazione del dotto biliare comune con CC</t>
-  </si>
-  <si>
-    <t>Interventi sulle vie biliari, eccetto colecistectomia isolata con o senza</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>esplorazione del dotto biliare comune senza CC</t>
+    <t>C</t>
   </si>
   <si>
     <t>2,9871</t>
@@ -4578,9 +4566,6 @@
     <t>1,6372</t>
   </si>
   <si>
-    <t>Escissione locale e rimozione di mezzi di fissazione interna eccetto anca e</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -4677,13 +4662,7 @@
     <t>3,2209</t>
   </si>
   <si>
-    <t>Impianto di pacemaker cardiaco permanente con diagnosi cardiovascolare</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>maggiore o di defibrillatore automatico (AICD) o di generatore di impulsi</t>
+    <t>C</t>
   </si>
   <si>
     <t>2,3045</t>
@@ -5227,6 +5206,15 @@
   </si>
   <si>
     <t>Diagnosi ematologiche/immunologiche maggiori eccetto anemia falciforme e coagulopatie</t>
+  </si>
+  <si>
+    <t>Interventi sulle vie biliari eccetto colecistectomia isolata con o senza esplorazione del dotto biliare comune con CC</t>
+  </si>
+  <si>
+    <t>Interventi sulle vie biliari, eccetto colecistectomia isolata con o senza esplorazione del dotto biliare comune senza CC</t>
+  </si>
+  <si>
+    <t>Impianto di pacemaker cardiaco permanente con diagnosi cardiovascolare maggiore o di defibrillatore automatico (AICD) o di generatore di impulsi</t>
   </si>
 </sst>
 </file>
@@ -5292,7 +5280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5308,11 +5296,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -5651,10 +5640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I547"/>
+  <dimension ref="A1:I543"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A286" zoomScale="139" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="F286" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -5666,20 +5655,20 @@
     <col min="5" max="6" width="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="11" customFormat="1" ht="18">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" s="10" customFormat="1" ht="18">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>1630</v>
+        <v>1623</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1629</v>
+        <v>1622</v>
       </c>
       <c r="C3" t="s">
-        <v>1631</v>
+        <v>1624</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>1</v>
@@ -5782,7 +5771,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>1632</v>
+        <v>1625</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
@@ -5802,7 +5791,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1633</v>
+        <v>1626</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>25</v>
@@ -5942,7 +5931,7 @@
         <v>51</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>1634</v>
+        <v>1627</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>52</v>
@@ -6142,7 +6131,7 @@
         <v>90</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>1635</v>
+        <v>1628</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>91</v>
@@ -6162,7 +6151,7 @@
         <v>93</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>1636</v>
+        <v>1629</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>94</v>
@@ -6722,7 +6711,7 @@
         <v>204</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>1637</v>
+        <v>1630</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>205</v>
@@ -6742,7 +6731,7 @@
         <v>207</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>1638</v>
+        <v>1631</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>208</v>
@@ -7662,7 +7651,7 @@
         <v>386</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>1639</v>
+        <v>1632</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>387</v>
@@ -7682,7 +7671,7 @@
         <v>388</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>1640</v>
+        <v>1633</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>389</v>
@@ -7782,7 +7771,7 @@
         <v>402</v>
       </c>
       <c r="D108" t="s">
-        <v>1641</v>
+        <v>1634</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>403</v>
@@ -7902,7 +7891,7 @@
         <v>419</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>1642</v>
+        <v>1635</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>420</v>
@@ -7922,7 +7911,7 @@
         <v>421</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>1643</v>
+        <v>1636</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>422</v>
@@ -7962,7 +7951,7 @@
         <v>426</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>1644</v>
+        <v>1637</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>427</v>
@@ -7982,7 +7971,7 @@
         <v>428</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>1645</v>
+        <v>1638</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>429</v>
@@ -9082,7 +9071,7 @@
         <v>592</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>1646</v>
+        <v>1639</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>593</v>
@@ -9102,7 +9091,7 @@
         <v>594</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>1647</v>
+        <v>1640</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>595</v>
@@ -9122,7 +9111,7 @@
         <v>596</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>1648</v>
+        <v>1641</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>597</v>
@@ -9142,7 +9131,7 @@
         <v>598</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>1649</v>
+        <v>1642</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>599</v>
@@ -9162,7 +9151,7 @@
         <v>600</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>1650</v>
+        <v>1643</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>601</v>
@@ -9291,7 +9280,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" ht="28">
       <c r="A184" s="3">
         <v>193</v>
       </c>
@@ -9301,78 +9290,108 @@
       <c r="C184" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="D184" s="2" t="s">
+      <c r="D184" s="7" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>621</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>622</v>
       </c>
       <c r="F184" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
-      <c r="D185" s="2" t="s">
+    <row r="185" spans="1:9" s="6" customFormat="1" ht="28">
+      <c r="A185" s="11">
+        <v>194</v>
+      </c>
+      <c r="B185" s="11">
+        <v>7</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="D185" s="7" t="s">
+        <v>1729</v>
+      </c>
+      <c r="E185" s="7" t="s">
         <v>623</v>
       </c>
+      <c r="F185" s="11">
+        <v>51</v>
+      </c>
     </row>
     <row r="186" spans="1:9">
+      <c r="A186" s="3">
+        <v>195</v>
+      </c>
+      <c r="B186" s="3">
+        <v>7</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>624</v>
+      </c>
       <c r="D186" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="F186" s="3">
+        <v>40</v>
       </c>
     </row>
     <row r="187" spans="1:9">
       <c r="A187" s="3">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B187" s="3">
         <v>7</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="F187" s="3">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="28">
       <c r="A188" s="3">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B188" s="3">
         <v>7</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
+      </c>
+      <c r="D188" s="8" t="s">
+        <v>1644</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F188" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" ht="28">
       <c r="A189" s="3">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B189" s="3">
         <v>7</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="D189" s="2" t="s">
         <v>632</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>1645</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>633</v>
@@ -9381,9 +9400,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="28">
+    <row r="190" spans="1:9">
       <c r="A190" s="3">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B190" s="3">
         <v>7</v>
@@ -9391,160 +9410,160 @@
       <c r="C190" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="D190" s="8" t="s">
-        <v>1651</v>
+      <c r="D190" s="2" t="s">
+        <v>635</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F190" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" ht="28">
+        <v>45</v>
+      </c>
+      <c r="I190" s="6"/>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="3">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B191" s="3">
         <v>7</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="D191" s="7" t="s">
-        <v>1652</v>
+        <v>637</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>638</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="F191" s="3">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="192" spans="1:9">
       <c r="A192" s="3">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B192" s="3">
         <v>7</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="F192" s="3">
-        <v>45</v>
-      </c>
-      <c r="I192" s="6"/>
+        <v>51</v>
+      </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="3">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B193" s="3">
         <v>7</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="F193" s="3">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="3">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B194" s="3">
         <v>7</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="F194" s="3">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="3">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B195" s="3">
         <v>7</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="F195" s="3">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="3">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B196" s="3">
         <v>7</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>651</v>
+        <v>1646</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F196" s="3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="28">
       <c r="A197" s="3">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B197" s="3">
         <v>7</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="D197" s="2" t="s">
         <v>654</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>1647</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>655</v>
       </c>
       <c r="F197" s="3">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="3">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B198" s="3">
         <v>7</v>
@@ -9553,118 +9572,118 @@
         <v>656</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>1653</v>
+        <v>657</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F198" s="3">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" ht="28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
       <c r="A199" s="3">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B199" s="3">
         <v>7</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="D199" s="6" t="s">
-        <v>1654</v>
+        <v>659</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>660</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F199" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="28">
       <c r="A200" s="3">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B200" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
+      </c>
+      <c r="D200" s="7" t="s">
+        <v>1648</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="F200" s="3">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="3">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B201" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="D201" s="2" t="s">
         <v>664</v>
+      </c>
+      <c r="D201" t="s">
+        <v>1650</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>665</v>
       </c>
       <c r="F201" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" ht="28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
       <c r="A202" s="3">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B202" s="3">
         <v>8</v>
       </c>
       <c r="C202" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="D202" t="s">
         <v>666</v>
       </c>
-      <c r="D202" s="7" t="s">
-        <v>1655</v>
-      </c>
       <c r="E202" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F202" s="3">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="3">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B203" s="3">
         <v>8</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D203" t="s">
-        <v>1657</v>
+        <v>1651</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F203" s="3">
-        <v>30</v>
+        <v>63</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="3">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B204" s="3">
         <v>8</v>
@@ -9672,59 +9691,59 @@
       <c r="C204" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="D204" t="s">
-        <v>670</v>
+      <c r="D204" s="2" t="s">
+        <v>672</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F204" s="3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="28">
       <c r="A205" s="3">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B205" s="3">
         <v>8</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="D205" t="s">
-        <v>1658</v>
+        <v>674</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>1649</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F205" s="3">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="28">
       <c r="A206" s="3">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B206" s="3">
         <v>8</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="D206" s="2" t="s">
         <v>676</v>
+      </c>
+      <c r="D206" s="7" t="s">
+        <v>1652</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>677</v>
       </c>
       <c r="F206" s="3">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="28">
       <c r="A207" s="3">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B207" s="3">
         <v>8</v>
@@ -9733,18 +9752,18 @@
         <v>678</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>679</v>
       </c>
       <c r="F207" s="3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" ht="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
       <c r="A208" s="3">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B208" s="3">
         <v>8</v>
@@ -9752,19 +9771,19 @@
       <c r="C208" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="D208" s="7" t="s">
-        <v>1659</v>
+      <c r="D208" t="s">
+        <v>1654</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>681</v>
       </c>
       <c r="F208" s="3">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="28">
       <c r="A209" s="3">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B209" s="3">
         <v>8</v>
@@ -9773,18 +9792,18 @@
         <v>682</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>1660</v>
+        <v>1655</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>683</v>
       </c>
       <c r="F209" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="28">
       <c r="A210" s="3">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B210" s="3">
         <v>8</v>
@@ -9792,19 +9811,19 @@
       <c r="C210" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="D210" t="s">
-        <v>1661</v>
+      <c r="D210" s="6" t="s">
+        <v>1656</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>685</v>
       </c>
       <c r="F210" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" ht="28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
       <c r="A211" s="3">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B211" s="3">
         <v>8</v>
@@ -9812,99 +9831,99 @@
       <c r="C211" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="D211" s="6" t="s">
-        <v>1662</v>
+      <c r="D211" s="2" t="s">
+        <v>687</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F211" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" ht="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
       <c r="A212" s="3">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B212" s="3">
         <v>8</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="D212" s="6" t="s">
-        <v>1663</v>
+        <v>689</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>690</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="F212" s="3">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="3">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B213" s="3">
         <v>8</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="F213" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="3">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B214" s="3">
         <v>8</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>694</v>
+        <v>1657</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F214" s="3">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="3">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B215" s="3">
         <v>8</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="D215" s="2" t="s">
         <v>697</v>
+      </c>
+      <c r="D215" t="s">
+        <v>1658</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>698</v>
       </c>
       <c r="F215" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="28">
       <c r="A216" s="3">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B216" s="3">
         <v>8</v>
@@ -9912,19 +9931,19 @@
       <c r="C216" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="D216" s="2" t="s">
-        <v>1664</v>
+      <c r="D216" s="6" t="s">
+        <v>1659</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>700</v>
       </c>
       <c r="F216" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="3">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B217" s="3">
         <v>8</v>
@@ -9932,59 +9951,59 @@
       <c r="C217" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="D217" t="s">
-        <v>1665</v>
+      <c r="D217" s="2" t="s">
+        <v>702</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F217" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="28">
+    <row r="218" spans="1:6">
       <c r="A218" s="3">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B218" s="3">
         <v>8</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="D218" s="6" t="s">
-        <v>1666</v>
+        <v>705</v>
+      </c>
+      <c r="D218" t="s">
+        <v>704</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="F218" s="3">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="3">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B219" s="3">
         <v>8</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
+      </c>
+      <c r="D219" t="s">
+        <v>1660</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F219" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="3">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B220" s="3">
         <v>8</v>
@@ -9992,319 +10011,319 @@
       <c r="C220" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="D220" t="s">
-        <v>708</v>
+      <c r="D220" s="2" t="s">
+        <v>710</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F220" s="3">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="3">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B221" s="3">
         <v>8</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="D221" t="s">
-        <v>1667</v>
+        <v>712</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>713</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="F221" s="3">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="3">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B222" s="3">
         <v>8</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="F222" s="3">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="3">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B223" s="3">
         <v>8</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="F223" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="28">
       <c r="A224" s="3">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B224" s="3">
         <v>8</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
+      </c>
+      <c r="D224" s="6" t="s">
+        <v>1661</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="F224" s="3">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="3">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B225" s="3">
         <v>8</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="F225" s="3">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" ht="28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
       <c r="A226" s="3">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B226" s="3">
         <v>8</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="D226" s="6" t="s">
-        <v>1668</v>
+        <v>726</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>727</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="F226" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="3">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B227" s="3">
         <v>8</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="F227" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="3">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B228" s="3">
         <v>8</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="F228" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="3">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B229" s="3">
         <v>8</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="F229" s="3">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="3">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B230" s="3">
         <v>8</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="F230" s="3">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="3">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B231" s="3">
         <v>8</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="F231" s="3">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="3">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B232" s="3">
         <v>8</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>743</v>
+        <v>1662</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F232" s="3">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="3">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B233" s="3">
         <v>8</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="F233" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="28">
       <c r="A234" s="3">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B234" s="3">
         <v>8</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>1669</v>
+        <v>749</v>
+      </c>
+      <c r="D234" s="7" t="s">
+        <v>1663</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="F234" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="28">
       <c r="A235" s="3">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B235" s="3">
         <v>8</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="D235" s="2" t="s">
         <v>751</v>
+      </c>
+      <c r="D235" s="7" t="s">
+        <v>1664</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>752</v>
       </c>
       <c r="F235" s="3">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="28">
       <c r="A236" s="3">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B236" s="3">
         <v>8</v>
@@ -10313,18 +10332,18 @@
         <v>753</v>
       </c>
       <c r="D236" s="7" t="s">
-        <v>1670</v>
+        <v>1665</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>754</v>
       </c>
       <c r="F236" s="3">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="28">
       <c r="A237" s="3">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B237" s="3">
         <v>8</v>
@@ -10333,18 +10352,18 @@
         <v>755</v>
       </c>
       <c r="D237" s="7" t="s">
-        <v>1671</v>
+        <v>1666</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>756</v>
       </c>
       <c r="F237" s="3">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="28">
       <c r="A238" s="3">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B238" s="3">
         <v>8</v>
@@ -10353,18 +10372,18 @@
         <v>757</v>
       </c>
       <c r="D238" s="7" t="s">
-        <v>1672</v>
+        <v>1667</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>758</v>
       </c>
       <c r="F238" s="3">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="28">
       <c r="A239" s="3">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B239" s="3">
         <v>8</v>
@@ -10373,18 +10392,18 @@
         <v>759</v>
       </c>
       <c r="D239" s="7" t="s">
-        <v>1673</v>
+        <v>1668</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>760</v>
       </c>
       <c r="F239" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="28">
       <c r="A240" s="3">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B240" s="3">
         <v>8</v>
@@ -10393,70 +10412,70 @@
         <v>761</v>
       </c>
       <c r="D240" s="7" t="s">
-        <v>1674</v>
+        <v>1669</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>762</v>
       </c>
       <c r="F240" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" ht="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
       <c r="A241" s="3">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B241" s="3">
         <v>8</v>
       </c>
       <c r="C241" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="D241" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="D241" s="7" t="s">
-        <v>1675</v>
-      </c>
       <c r="E241" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="F241" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" ht="28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
       <c r="A242" s="3">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B242" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>765</v>
-      </c>
-      <c r="D242" s="7" t="s">
-        <v>1676</v>
+        <v>766</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>767</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="F242" s="3">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="3">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B243" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="F243" s="3">
         <v>14</v>
@@ -10464,167 +10483,167 @@
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="3">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B244" s="3">
         <v>9</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="F244" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="3">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B245" s="3">
         <v>9</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="F245" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="28">
       <c r="A246" s="3">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B246" s="3">
         <v>9</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
+      </c>
+      <c r="D246" s="7" t="s">
+        <v>1670</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="F246" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="3">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B247" s="3">
         <v>9</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>780</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="F247" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" ht="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
       <c r="A248" s="3">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B248" s="3">
         <v>9</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="D248" s="7" t="s">
-        <v>1677</v>
+        <v>783</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>784</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="F248" s="3">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="3">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B249" s="3">
         <v>9</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="F249" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="28">
       <c r="A250" s="3">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B250" s="3">
         <v>9</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
+      </c>
+      <c r="D250" s="7" t="s">
+        <v>1671</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="F250" s="3">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="28">
       <c r="A251" s="3">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B251" s="3">
         <v>9</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="D251" s="2" t="s">
         <v>791</v>
+      </c>
+      <c r="D251" s="7" t="s">
+        <v>1672</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>792</v>
       </c>
       <c r="F251" s="3">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" ht="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
       <c r="A252" s="3">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B252" s="3">
         <v>9</v>
@@ -10632,31 +10651,31 @@
       <c r="C252" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="D252" s="7" t="s">
-        <v>1678</v>
+      <c r="D252" s="2" t="s">
+        <v>794</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F252" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" ht="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
       <c r="A253" s="3">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B253" s="3">
         <v>9</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="D253" s="7" t="s">
-        <v>1679</v>
+        <v>796</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>797</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="F253" s="3">
         <v>10</v>
@@ -10664,267 +10683,267 @@
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="3">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B254" s="3">
         <v>9</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="F254" s="3">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="3">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B255" s="3">
         <v>9</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="F255" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="3">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B256" s="3">
         <v>9</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="F256" s="3">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="3">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B257" s="3">
         <v>9</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="F257" s="3">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="3">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B258" s="3">
         <v>9</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="F258" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="3">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B259" s="3">
         <v>9</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="F259" s="3">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="3">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B260" s="3">
         <v>9</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="F260" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="3">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B261" s="3">
         <v>9</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="F261" s="3">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="3">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B262" s="3">
         <v>9</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="F262" s="3">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="3">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B263" s="3">
         <v>9</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="F263" s="3">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="264" spans="1:6">
       <c r="A264" s="3">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B264" s="3">
         <v>9</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="F264" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="28">
       <c r="A265" s="3">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B265" s="3">
         <v>9</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="D265" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
+      </c>
+      <c r="D265" s="7" t="s">
+        <v>1673</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="F265" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="28">
       <c r="A266" s="3">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B266" s="3">
         <v>9</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="D266" s="2" t="s">
         <v>834</v>
+      </c>
+      <c r="D266" s="7" t="s">
+        <v>1674</v>
       </c>
       <c r="E266" s="2" t="s">
         <v>835</v>
       </c>
       <c r="F266" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" ht="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
       <c r="A267" s="3">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B267" s="3">
         <v>9</v>
@@ -10932,19 +10951,19 @@
       <c r="C267" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="D267" s="7" t="s">
-        <v>1680</v>
+      <c r="D267" s="2" t="s">
+        <v>1675</v>
       </c>
       <c r="E267" s="2" t="s">
         <v>837</v>
       </c>
       <c r="F267" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" ht="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
       <c r="A268" s="3">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B268" s="3">
         <v>9</v>
@@ -10952,299 +10971,299 @@
       <c r="C268" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="D268" s="7" t="s">
-        <v>1681</v>
+      <c r="D268" s="2" t="s">
+        <v>839</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="F268" s="3">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="3">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B269" s="3">
         <v>9</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>1682</v>
+        <v>842</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="F269" s="3">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="3">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B270" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>843</v>
+        <v>1676</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="F270" s="3">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="3">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B271" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="F271" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" ht="28">
       <c r="A272" s="3">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B272" s="3">
         <v>10</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>848</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>1683</v>
+        <v>849</v>
+      </c>
+      <c r="D272" s="7" t="s">
+        <v>1677</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="F272" s="3">
-        <v>59</v>
+        <v>34</v>
       </c>
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="3">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B273" s="3">
         <v>10</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="F273" s="3">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" ht="28">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
       <c r="A274" s="3">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B274" s="3">
         <v>10</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>853</v>
-      </c>
-      <c r="D274" s="7" t="s">
-        <v>1684</v>
+        <v>854</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>855</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="F274" s="3">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="3">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B275" s="3">
         <v>10</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="F275" s="3">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="3">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B276" s="3">
         <v>10</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="F276" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="3">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B277" s="3">
         <v>10</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="F277" s="3">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="3">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B278" s="3">
         <v>10</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="F278" s="3">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="3">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B279" s="3">
         <v>10</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="F279" s="3">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="3">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B280" s="3">
         <v>10</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="F280" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="28">
       <c r="A281" s="3">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B281" s="3">
         <v>10</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="D281" s="2" t="s">
-        <v>874</v>
+        <v>875</v>
+      </c>
+      <c r="D281" s="7" t="s">
+        <v>1678</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="F281" s="3">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="3">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B282" s="3">
         <v>10</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>877</v>
+        <v>1679</v>
       </c>
       <c r="E282" s="2" t="s">
         <v>878</v>
       </c>
       <c r="F282" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" ht="28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
       <c r="A283" s="3">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B283" s="3">
         <v>10</v>
@@ -11252,19 +11271,19 @@
       <c r="C283" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="D283" s="7" t="s">
-        <v>1685</v>
+      <c r="D283" s="2" t="s">
+        <v>1680</v>
       </c>
       <c r="E283" s="2" t="s">
         <v>880</v>
       </c>
       <c r="F283" s="3">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="3">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B284" s="3">
         <v>10</v>
@@ -11273,50 +11292,50 @@
         <v>881</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>1686</v>
+        <v>882</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="F284" s="3">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="3">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B285" s="3">
         <v>10</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>1687</v>
+        <v>885</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="F285" s="3">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="3">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B286" s="3">
         <v>10</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="F286" s="3">
         <v>17</v>
@@ -11324,219 +11343,219 @@
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="3">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B287" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="F287" s="3">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="3">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B288" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="F288" s="3">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="3">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B289" s="3">
         <v>11</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="F289" s="3">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="3">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B290" s="3">
         <v>11</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="F290" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="3">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B291" s="3">
         <v>11</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="F291" s="3">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="3">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B292" s="3">
         <v>11</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="F292" s="3">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="3">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B293" s="3">
         <v>11</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="F293" s="3">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="3">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B294" s="3">
         <v>11</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="F294" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="3">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B295" s="3">
         <v>11</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="F295" s="3">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="296" spans="1:6">
       <c r="A296" s="3">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B296" s="3">
         <v>11</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="F296" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="3">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B297" s="3">
         <v>11</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="F297" s="3">
         <v>17</v>
@@ -11544,19 +11563,19 @@
     </row>
     <row r="298" spans="1:6">
       <c r="A298" s="3">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B298" s="3">
         <v>11</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="F298" s="3">
         <v>10</v>
@@ -11564,19 +11583,19 @@
     </row>
     <row r="299" spans="1:6">
       <c r="A299" s="3">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B299" s="3">
         <v>11</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="F299" s="3">
         <v>17</v>
@@ -11584,139 +11603,139 @@
     </row>
     <row r="300" spans="1:6">
       <c r="A300" s="3">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B300" s="3">
         <v>11</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F300" s="3">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="301" spans="1:6">
       <c r="A301" s="3">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B301" s="3">
         <v>11</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="F301" s="3">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="302" spans="1:6">
       <c r="A302" s="3">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B302" s="3">
         <v>11</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="F302" s="3">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:6">
       <c r="A303" s="3">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B303" s="3">
         <v>11</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="F303" s="3">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="304" spans="1:6">
       <c r="A304" s="3">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B304" s="3">
         <v>11</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="F304" s="3">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="305" spans="1:6">
       <c r="A305" s="3">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B305" s="3">
         <v>11</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="F305" s="3">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="306" spans="1:6">
       <c r="A306" s="3">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B306" s="3">
         <v>11</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="F306" s="3">
         <v>17</v>
@@ -11724,99 +11743,99 @@
     </row>
     <row r="307" spans="1:6">
       <c r="A307" s="3">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B307" s="3">
         <v>11</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="F307" s="3">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="308" spans="1:6">
       <c r="A308" s="3">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B308" s="3">
         <v>11</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="F308" s="3">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="309" spans="1:6">
       <c r="A309" s="3">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B309" s="3">
         <v>11</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="F309" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="310" spans="1:6">
       <c r="A310" s="3">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B310" s="3">
         <v>11</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="F310" s="3">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="311" spans="1:6">
       <c r="A311" s="3">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B311" s="3">
         <v>11</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="F311" s="3">
         <v>10</v>
@@ -11824,319 +11843,319 @@
     </row>
     <row r="312" spans="1:6">
       <c r="A312" s="3">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B312" s="3">
         <v>11</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="F312" s="3">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="313" spans="1:6">
       <c r="A313" s="3">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B313" s="3">
         <v>11</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="F313" s="3">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="3">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B314" s="3">
         <v>11</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="F314" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="315" spans="1:6">
       <c r="A315" s="3">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B315" s="3">
         <v>11</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="F315" s="3">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="316" spans="1:6">
       <c r="A316" s="3">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B316" s="3">
         <v>11</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="F316" s="3">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="317" spans="1:6">
       <c r="A317" s="3">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B317" s="3">
         <v>11</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="F317" s="3">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="318" spans="1:6">
       <c r="A318" s="3">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B318" s="3">
         <v>11</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="F318" s="3">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="319" spans="1:6">
       <c r="A319" s="3">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B319" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="F319" s="3">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="320" spans="1:6">
       <c r="A320" s="3">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B320" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="F320" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="321" spans="1:6">
       <c r="A321" s="3">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B321" s="3">
         <v>12</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="F321" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="322" spans="1:6">
       <c r="A322" s="3">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B322" s="3">
         <v>12</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="F322" s="3">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="323" spans="1:6">
       <c r="A323" s="3">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B323" s="3">
         <v>12</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="F323" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="324" spans="1:6">
       <c r="A324" s="3">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B324" s="3">
         <v>12</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="F324" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="3">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B325" s="3">
         <v>12</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="F325" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="326" spans="1:6">
       <c r="A326" s="3">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B326" s="3">
         <v>12</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="F326" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="3">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B327" s="3">
         <v>12</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="F327" s="3">
         <v>4</v>
@@ -12144,139 +12163,139 @@
     </row>
     <row r="328" spans="1:6">
       <c r="A328" s="3">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B328" s="3">
         <v>12</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="F328" s="3">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="329" spans="1:6">
       <c r="A329" s="3">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B329" s="3">
         <v>12</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="F329" s="3">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="330" spans="1:6">
       <c r="A330" s="3">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B330" s="3">
         <v>12</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>1018</v>
+        <v>1681</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="F330" s="3">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="331" spans="1:6">
       <c r="A331" s="3">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B331" s="3">
         <v>12</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="F331" s="3">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="332" spans="1:6">
       <c r="A332" s="3">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B332" s="3">
         <v>12</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>1688</v>
+        <v>1025</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="F332" s="3">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="333" spans="1:6">
       <c r="A333" s="3">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B333" s="3">
         <v>12</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="F333" s="3">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="334" spans="1:6">
       <c r="A334" s="3">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B334" s="3">
         <v>12</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="F334" s="3">
         <v>10</v>
@@ -12284,127 +12303,127 @@
     </row>
     <row r="335" spans="1:6">
       <c r="A335" s="3">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B335" s="3">
         <v>12</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="F335" s="3">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="336" spans="1:6">
       <c r="A336" s="3">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B336" s="3">
         <v>12</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="F336" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="337" spans="1:6">
       <c r="A337" s="3">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B337" s="3">
         <v>12</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="F337" s="3">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="338" spans="1:6">
       <c r="A338" s="3">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B338" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="F338" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" ht="28">
       <c r="A339" s="3">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B339" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D339" s="2" t="s">
-        <v>1044</v>
+        <v>1045</v>
+      </c>
+      <c r="D339" s="7" t="s">
+        <v>1682</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="F339" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" ht="28">
       <c r="A340" s="3">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B340" s="3">
         <v>13</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D340" s="2" t="s">
         <v>1047</v>
+      </c>
+      <c r="D340" s="7" t="s">
+        <v>1683</v>
       </c>
       <c r="E340" s="2" t="s">
         <v>1048</v>
       </c>
       <c r="F340" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6" ht="28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
       <c r="A341" s="3">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B341" s="3">
         <v>13</v>
@@ -12412,451 +12431,451 @@
       <c r="C341" s="2" t="s">
         <v>1049</v>
       </c>
-      <c r="D341" s="7" t="s">
-        <v>1689</v>
+      <c r="D341" s="2" t="s">
+        <v>1050</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="F341" s="3">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6" ht="28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
       <c r="A342" s="3">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B342" s="3">
         <v>13</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D342" s="7" t="s">
-        <v>1690</v>
+        <v>1052</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>1684</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="F342" s="3">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="343" spans="1:6">
       <c r="A343" s="3">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B343" s="3">
         <v>13</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="F343" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="3">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B344" s="3">
         <v>13</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>1691</v>
+        <v>1058</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="F344" s="3">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="345" spans="1:6">
       <c r="A345" s="3">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B345" s="3">
         <v>13</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="F345" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346" spans="1:6">
       <c r="A346" s="3">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B346" s="3">
         <v>13</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="F346" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="347" spans="1:6">
       <c r="A347" s="3">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B347" s="3">
         <v>13</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="F347" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" ht="28">
       <c r="A348" s="3">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B348" s="3">
         <v>13</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D348" s="2" t="s">
-        <v>1068</v>
+        <v>1069</v>
+      </c>
+      <c r="D348" s="7" t="s">
+        <v>1685</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="F348" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="349" spans="1:6">
       <c r="A349" s="3">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B349" s="3">
         <v>13</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="D349" s="2" t="s">
         <v>1071</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="F349" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="1:6" ht="28">
+    <row r="350" spans="1:6">
       <c r="A350" s="3">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B350" s="3">
         <v>13</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D350" s="7" t="s">
-        <v>1692</v>
+        <v>1074</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>1075</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="F350" s="3">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="351" spans="1:6">
       <c r="A351" s="3">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B351" s="3">
         <v>13</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="F351" s="3">
-        <v>4</v>
+        <v>37</v>
       </c>
     </row>
     <row r="352" spans="1:6">
       <c r="A352" s="3">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B352" s="3">
         <v>13</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="F352" s="3">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="353" spans="1:6">
       <c r="A353" s="3">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B353" s="3">
         <v>13</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="F353" s="3">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="354" spans="1:6">
       <c r="A354" s="3">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B354" s="3">
         <v>13</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="F354" s="3">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="355" spans="1:6">
       <c r="A355" s="3">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B355" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="F355" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="356" spans="1:6">
       <c r="A356" s="3">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B356" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="F356" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="357" spans="1:6">
       <c r="A357" s="3">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B357" s="3">
         <v>14</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="F357" s="3">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="358" spans="1:6">
       <c r="A358" s="3">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B358" s="3">
         <v>14</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="F358" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="359" spans="1:6">
       <c r="A359" s="3">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B359" s="3">
         <v>14</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="F359" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="360" spans="1:6">
+    <row r="360" spans="1:6" ht="28">
       <c r="A360" s="3">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B360" s="3">
         <v>14</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D360" s="2" t="s">
-        <v>1103</v>
+        <v>1104</v>
+      </c>
+      <c r="D360" s="7" t="s">
+        <v>1686</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="F360" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="361" spans="1:6">
       <c r="A361" s="3">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B361" s="3">
         <v>14</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="F361" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6" ht="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6">
       <c r="A362" s="3">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B362" s="3">
         <v>14</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D362" s="7" t="s">
-        <v>1693</v>
+        <v>1109</v>
+      </c>
+      <c r="D362" s="2" t="s">
+        <v>1110</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="F362" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="363" spans="1:6">
       <c r="A363" s="3">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B363" s="3">
         <v>14</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="F363" s="3">
         <v>10</v>
@@ -12864,499 +12883,499 @@
     </row>
     <row r="364" spans="1:6">
       <c r="A364" s="3">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B364" s="3">
         <v>14</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="F364" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="365" spans="1:6">
       <c r="A365" s="3">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B365" s="3">
         <v>14</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="F365" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="366" spans="1:6">
       <c r="A366" s="3">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B366" s="3">
         <v>14</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="F366" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="367" spans="1:6">
       <c r="A367" s="3">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B367" s="3">
         <v>14</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="F367" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="368" spans="1:6">
       <c r="A368" s="3">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B368" s="3">
         <v>14</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="F368" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="369" spans="1:6">
       <c r="A369" s="3">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B369" s="3">
         <v>14</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="F369" s="3">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="370" spans="1:6">
       <c r="A370" s="3">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B370" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="F370" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="371" spans="1:6">
       <c r="A371" s="3">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B371" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="F371" s="3">
-        <v>14</v>
+        <v>135</v>
       </c>
     </row>
     <row r="372" spans="1:6">
       <c r="A372" s="3">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B372" s="3">
         <v>15</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="F372" s="3">
-        <v>4</v>
+        <v>51</v>
       </c>
     </row>
     <row r="373" spans="1:6">
       <c r="A373" s="3">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B373" s="3">
         <v>15</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="F373" s="3">
-        <v>135</v>
+        <v>20</v>
       </c>
     </row>
     <row r="374" spans="1:6">
       <c r="A374" s="3">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B374" s="3">
         <v>15</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="F374" s="3">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="375" spans="1:6">
       <c r="A375" s="3">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B375" s="3">
         <v>15</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="F375" s="3">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="376" spans="1:6">
       <c r="A376" s="3">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B376" s="3">
         <v>15</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="F376" s="3">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="377" spans="1:6">
       <c r="A377" s="3">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B377" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="F377" s="3">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="378" spans="1:6">
       <c r="A378" s="3">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B378" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="F378" s="3">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="379" spans="1:6">
       <c r="A379" s="3">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B379" s="3">
         <v>16</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="F379" s="3">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="380" spans="1:6">
       <c r="A380" s="3">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B380" s="3">
         <v>16</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="F380" s="3">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="381" spans="1:6">
       <c r="A381" s="3">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B381" s="3">
         <v>16</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="F381" s="3">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="382" spans="1:6">
       <c r="A382" s="3">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B382" s="3">
         <v>16</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="F382" s="3">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="383" spans="1:6">
       <c r="A383" s="3">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B383" s="3">
         <v>16</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="F383" s="3">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="384" spans="1:6">
       <c r="A384" s="3">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B384" s="3">
         <v>16</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="F384" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="385" spans="1:6">
       <c r="A385" s="3">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B385" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="E385" s="2" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="F385" s="3">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="386" spans="1:6">
       <c r="A386" s="3">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B386" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="F386" s="3">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="387" spans="1:6">
       <c r="A387" s="3">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B387" s="3">
         <v>17</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="F387" s="3">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="388" spans="1:6">
       <c r="A388" s="3">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B388" s="3">
         <v>17</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="F388" s="3">
         <v>24</v>
@@ -13364,67 +13383,67 @@
     </row>
     <row r="389" spans="1:6">
       <c r="A389" s="3">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B389" s="3">
         <v>17</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="F389" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="390" spans="1:6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" ht="28">
       <c r="A390" s="3">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B390" s="3">
         <v>17</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>1191</v>
-      </c>
-      <c r="D390" s="2" t="s">
-        <v>1192</v>
+        <v>1193</v>
+      </c>
+      <c r="D390" s="7" t="s">
+        <v>1687</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="F390" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="391" spans="1:6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" ht="28">
       <c r="A391" s="3">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B391" s="3">
         <v>17</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D391" s="2" t="s">
         <v>1195</v>
+      </c>
+      <c r="D391" s="7" t="s">
+        <v>1688</v>
       </c>
       <c r="E391" s="2" t="s">
         <v>1196</v>
       </c>
       <c r="F391" s="3">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="392" spans="1:6" ht="28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6">
       <c r="A392" s="3">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B392" s="3">
         <v>17</v>
@@ -13432,19 +13451,19 @@
       <c r="C392" s="2" t="s">
         <v>1197</v>
       </c>
-      <c r="D392" s="7" t="s">
-        <v>1694</v>
+      <c r="D392" s="2" t="s">
+        <v>1689</v>
       </c>
       <c r="E392" s="2" t="s">
         <v>1198</v>
       </c>
       <c r="F392" s="3">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="393" spans="1:6" ht="28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6">
       <c r="A393" s="3">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B393" s="3">
         <v>17</v>
@@ -13452,371 +13471,371 @@
       <c r="C393" s="2" t="s">
         <v>1199</v>
       </c>
-      <c r="D393" s="7" t="s">
-        <v>1695</v>
+      <c r="D393" s="2" t="s">
+        <v>1200</v>
       </c>
       <c r="E393" s="2" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="F393" s="3">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="394" spans="1:6">
       <c r="A394" s="3">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B394" s="3">
         <v>17</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>1696</v>
+        <v>1203</v>
       </c>
       <c r="E394" s="2" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="F394" s="3">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="395" spans="1:6">
       <c r="A395" s="3">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B395" s="3">
         <v>17</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="F395" s="3">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="396" spans="1:6">
       <c r="A396" s="3">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B396" s="3">
         <v>17</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="F396" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="397" spans="1:6">
       <c r="A397" s="3">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B397" s="3">
         <v>17</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>1209</v>
+        <v>1212</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="E397" s="2" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="F397" s="3">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="398" spans="1:6">
       <c r="A398" s="3">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B398" s="3">
         <v>17</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="F398" s="3">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="399" spans="1:6">
       <c r="A399" s="3">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B399" s="3">
+        <v>18</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D399" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E399" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F399" s="3">
         <v>17</v>
-      </c>
-      <c r="C399" s="2" t="s">
-        <v>1216</v>
-      </c>
-      <c r="D399" s="2" t="s">
-        <v>1215</v>
-      </c>
-      <c r="E399" s="2" t="s">
-        <v>1217</v>
-      </c>
-      <c r="F399" s="3">
-        <v>41</v>
       </c>
     </row>
     <row r="400" spans="1:6">
       <c r="A400" s="3">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B400" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="E400" s="2" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="F400" s="3">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="401" spans="1:6">
       <c r="A401" s="3">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B401" s="3">
         <v>18</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="E401" s="2" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="F401" s="3">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="402" spans="1:6">
       <c r="A402" s="3">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B402" s="3">
         <v>18</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="E402" s="2" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="F402" s="3">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="403" spans="1:6">
       <c r="A403" s="3">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B403" s="3">
         <v>18</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="E403" s="2" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="F403" s="3">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="404" spans="1:6">
       <c r="A404" s="3">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B404" s="3">
         <v>18</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="F404" s="3">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="405" spans="1:6">
       <c r="A405" s="3">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B405" s="3">
         <v>18</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="F405" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="406" spans="1:6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" ht="28">
       <c r="A406" s="3">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B406" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>1236</v>
-      </c>
-      <c r="D406" s="2" t="s">
-        <v>1237</v>
+        <v>1238</v>
+      </c>
+      <c r="D406" s="7" t="s">
+        <v>1690</v>
       </c>
       <c r="E406" s="2" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="F406" s="3">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="407" spans="1:6">
       <c r="A407" s="3">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B407" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="E407" s="2" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="F407" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="408" spans="1:6" ht="28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6">
       <c r="A408" s="3">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B408" s="3">
         <v>19</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>1242</v>
-      </c>
-      <c r="D408" s="7" t="s">
-        <v>1697</v>
+        <v>1243</v>
+      </c>
+      <c r="D408" s="2" t="s">
+        <v>1244</v>
       </c>
       <c r="E408" s="2" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="F408" s="3">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="409" spans="1:6">
       <c r="A409" s="3">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B409" s="3">
         <v>19</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="E409" s="2" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="F409" s="3">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="410" spans="1:6">
       <c r="A410" s="3">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B410" s="3">
         <v>19</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="F410" s="3">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="411" spans="1:6">
       <c r="A411" s="3">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B411" s="3">
         <v>19</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="E411" s="2" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="F411" s="3">
         <v>27</v>
@@ -13824,259 +13843,259 @@
     </row>
     <row r="412" spans="1:6">
       <c r="A412" s="3">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B412" s="3">
         <v>19</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="E412" s="2" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="F412" s="3">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="413" spans="1:6">
       <c r="A413" s="3">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B413" s="3">
         <v>19</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="E413" s="2" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="F413" s="3">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="414" spans="1:6">
       <c r="A414" s="3">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B414" s="3">
         <v>19</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="E414" s="2" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F414" s="3">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="415" spans="1:6">
       <c r="A415" s="3">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B415" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="E415" s="2" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="F415" s="3">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="416" spans="1:6">
       <c r="A416" s="3">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="B416" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="E416" s="2" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="F416" s="3">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="417" spans="1:6">
       <c r="A417" s="3">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="B417" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="E417" s="2" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="F417" s="3">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="418" spans="1:6">
       <c r="A418" s="3">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B418" s="3">
         <v>21</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="E418" s="2" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="F418" s="3">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="419" spans="1:6">
       <c r="A419" s="3">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B419" s="3">
         <v>21</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="E419" s="2" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="F419" s="3">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="420" spans="1:6">
       <c r="A420" s="3">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B420" s="3">
         <v>21</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="E420" s="2" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="F420" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="421" spans="1:6">
       <c r="A421" s="3">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B421" s="3">
         <v>21</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="E421" s="2" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="F421" s="3">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="422" spans="1:6">
       <c r="A422" s="3">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B422" s="3">
         <v>21</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="E422" s="2" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="F422" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="423" spans="1:6">
       <c r="A423" s="3">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B423" s="3">
         <v>21</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="E423" s="2" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="F423" s="3">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="424" spans="1:6">
       <c r="A424" s="3">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B424" s="3">
         <v>21</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="E424" s="2" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="F424" s="3">
         <v>10</v>
@@ -14084,287 +14103,287 @@
     </row>
     <row r="425" spans="1:6">
       <c r="A425" s="3">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B425" s="3">
         <v>21</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="E425" s="2" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="F425" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="426" spans="1:6">
       <c r="A426" s="3">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B426" s="3">
         <v>21</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="E426" s="2" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="F426" s="3">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="427" spans="1:6">
       <c r="A427" s="3">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B427" s="3">
         <v>21</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="E427" s="2" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="F427" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="428" spans="1:6">
       <c r="A428" s="3">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B428" s="3">
         <v>21</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="E428" s="2" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="F428" s="3">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="429" spans="1:6">
       <c r="A429" s="3">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B429" s="3">
         <v>21</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="E429" s="2" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="F429" s="3">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="430" spans="1:6">
       <c r="A430" s="3">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B430" s="3">
         <v>21</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="E430" s="2" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="F430" s="3">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="431" spans="1:6">
       <c r="A431" s="3">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B431" s="3">
         <v>21</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="E431" s="2" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="F431" s="3">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="432" spans="1:6">
       <c r="A432" s="3">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B432" s="3">
         <v>21</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="F432" s="3">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="433" spans="1:6">
       <c r="A433" s="3">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B433" s="3">
+        <v>23</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D433" s="2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E433" s="2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F433" s="3">
         <v>21</v>
-      </c>
-      <c r="C433" s="2" t="s">
-        <v>1316</v>
-      </c>
-      <c r="D433" s="2" t="s">
-        <v>1317</v>
-      </c>
-      <c r="E433" s="2" t="s">
-        <v>1318</v>
-      </c>
-      <c r="F433" s="3">
-        <v>18</v>
       </c>
     </row>
     <row r="434" spans="1:6">
       <c r="A434" s="3">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="B434" s="3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="E434" s="2" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="F434" s="3">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="435" spans="1:6">
       <c r="A435" s="3">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B435" s="3">
         <v>23</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="E435" s="2" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="F435" s="3">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="436" spans="1:6">
       <c r="A436" s="3">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B436" s="3">
         <v>23</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="E436" s="2" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="F436" s="3">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="437" spans="1:6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" ht="28">
       <c r="A437" s="3">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B437" s="3">
         <v>23</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>1328</v>
-      </c>
-      <c r="D437" s="2" t="s">
-        <v>1329</v>
+        <v>1330</v>
+      </c>
+      <c r="D437" s="7" t="s">
+        <v>1691</v>
       </c>
       <c r="E437" s="2" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="F437" s="3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="438" spans="1:6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" ht="28">
       <c r="A438" s="3">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B438" s="3">
         <v>23</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>1331</v>
-      </c>
-      <c r="D438" s="2" t="s">
         <v>1332</v>
+      </c>
+      <c r="D438" s="7" t="s">
+        <v>1692</v>
       </c>
       <c r="E438" s="2" t="s">
         <v>1333</v>
       </c>
       <c r="F438" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="439" spans="1:6" ht="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6">
       <c r="A439" s="3">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B439" s="3">
         <v>23</v>
@@ -14372,51 +14391,51 @@
       <c r="C439" s="2" t="s">
         <v>1334</v>
       </c>
-      <c r="D439" s="7" t="s">
-        <v>1698</v>
+      <c r="D439" s="2" t="s">
+        <v>1335</v>
       </c>
       <c r="E439" s="2" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="F439" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="440" spans="1:6" ht="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6">
       <c r="A440" s="3">
-        <v>466</v>
-      </c>
-      <c r="B440" s="3">
-        <v>23</v>
+        <v>468</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>1337</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>1336</v>
-      </c>
-      <c r="D440" s="7" t="s">
-        <v>1699</v>
+        <v>1338</v>
+      </c>
+      <c r="D440" s="2" t="s">
+        <v>1339</v>
       </c>
       <c r="E440" s="2" t="s">
-        <v>1337</v>
+        <v>1340</v>
       </c>
       <c r="F440" s="3">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="441" spans="1:6">
       <c r="A441" s="3">
-        <v>467</v>
-      </c>
-      <c r="B441" s="3">
-        <v>23</v>
+        <v>469</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>1341</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>1339</v>
+        <v>1343</v>
       </c>
       <c r="E441" s="2" t="s">
-        <v>1340</v>
+        <v>1344</v>
       </c>
       <c r="F441" s="3">
         <v>10</v>
@@ -14424,179 +14443,179 @@
     </row>
     <row r="442" spans="1:6">
       <c r="A442" s="3">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>1341</v>
+        <v>1345</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>1342</v>
+        <v>1346</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>1343</v>
+        <v>1347</v>
       </c>
       <c r="E442" s="2" t="s">
-        <v>1344</v>
+        <v>1348</v>
       </c>
       <c r="F442" s="3">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="443" spans="1:6">
       <c r="A443" s="3">
-        <v>469</v>
-      </c>
-      <c r="B443" s="2" t="s">
-        <v>1345</v>
+        <v>471</v>
+      </c>
+      <c r="B443" s="3">
+        <v>8</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>1346</v>
+        <v>1350</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="E443" s="2" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="F443" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="444" spans="1:6">
       <c r="A444" s="3">
-        <v>470</v>
-      </c>
-      <c r="B444" s="2" t="s">
-        <v>1349</v>
+        <v>473</v>
+      </c>
+      <c r="B444" s="3">
+        <v>17</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="E444" s="2" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="F444" s="3">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="445" spans="1:6">
       <c r="A445" s="3">
-        <v>471</v>
-      </c>
-      <c r="B445" s="3">
-        <v>8</v>
+        <v>476</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>1356</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>1354</v>
+        <v>1357</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="E445" s="2" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="F445" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="446" spans="1:6">
       <c r="A446" s="3">
-        <v>473</v>
-      </c>
-      <c r="B446" s="3">
-        <v>17</v>
+        <v>477</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>1360</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>1356</v>
+        <v>1361</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="E446" s="2" t="s">
-        <v>1358</v>
+        <v>1362</v>
       </c>
       <c r="F446" s="3">
-        <v>81</v>
+        <v>32</v>
       </c>
     </row>
     <row r="447" spans="1:6">
       <c r="A447" s="3">
-        <v>476</v>
-      </c>
-      <c r="B447" s="2" t="s">
-        <v>1360</v>
+        <v>479</v>
+      </c>
+      <c r="B447" s="3">
+        <v>5</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>1359</v>
+        <v>1364</v>
       </c>
       <c r="E447" s="2" t="s">
-        <v>1362</v>
+        <v>1365</v>
       </c>
       <c r="F447" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="448" spans="1:6">
       <c r="A448" s="3">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>1363</v>
+        <v>1368</v>
       </c>
       <c r="E448" s="2" t="s">
-        <v>1366</v>
+        <v>1369</v>
       </c>
       <c r="F448" s="3">
-        <v>32</v>
+        <v>61</v>
       </c>
     </row>
     <row r="449" spans="1:6">
       <c r="A449" s="3">
-        <v>479</v>
-      </c>
-      <c r="B449" s="3">
-        <v>5</v>
+        <v>481</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>1370</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>1367</v>
+        <v>1371</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>1368</v>
+        <v>1372</v>
       </c>
       <c r="E449" s="2" t="s">
-        <v>1369</v>
+        <v>1373</v>
       </c>
       <c r="F449" s="3">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="450" spans="1:6">
       <c r="A450" s="3">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>1370</v>
+        <v>1374</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>1371</v>
+        <v>1375</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>1372</v>
+        <v>1376</v>
       </c>
       <c r="E450" s="2" t="s">
-        <v>1373</v>
+        <v>1377</v>
       </c>
       <c r="F450" s="3">
         <v>61</v>
@@ -14604,447 +14623,447 @@
     </row>
     <row r="451" spans="1:6">
       <c r="A451" s="3">
-        <v>481</v>
-      </c>
-      <c r="B451" s="2" t="s">
-        <v>1374</v>
+        <v>484</v>
+      </c>
+      <c r="B451" s="3">
+        <v>24</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>1375</v>
+        <v>1378</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>1376</v>
+        <v>1379</v>
       </c>
       <c r="E451" s="2" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="F451" s="3">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="452" spans="1:6">
       <c r="A452" s="3">
-        <v>482</v>
-      </c>
-      <c r="B452" s="2" t="s">
-        <v>1378</v>
+        <v>485</v>
+      </c>
+      <c r="B452" s="3">
+        <v>24</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>1380</v>
+        <v>1693</v>
       </c>
       <c r="E452" s="2" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="F452" s="3">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="453" spans="1:6">
       <c r="A453" s="3">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B453" s="3">
         <v>24</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="E453" s="2" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="F453" s="3">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="454" spans="1:6">
       <c r="A454" s="3">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B454" s="3">
         <v>24</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>1700</v>
+        <v>1387</v>
       </c>
       <c r="E454" s="2" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="F454" s="3">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="455" spans="1:6">
       <c r="A455" s="3">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B455" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="E455" s="2" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="F455" s="3">
-        <v>50</v>
+        <v>112</v>
       </c>
     </row>
     <row r="456" spans="1:6">
       <c r="A456" s="3">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B456" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="E456" s="2" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="F456" s="3">
-        <v>37</v>
+        <v>58</v>
       </c>
     </row>
     <row r="457" spans="1:6">
       <c r="A457" s="3">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B457" s="3">
         <v>25</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="E457" s="2" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="F457" s="3">
-        <v>112</v>
+        <v>31</v>
       </c>
     </row>
     <row r="458" spans="1:6">
       <c r="A458" s="3">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B458" s="3">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="E458" s="2" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="F458" s="3">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="459" spans="1:6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" ht="28">
       <c r="A459" s="3">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B459" s="3">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>1399</v>
-      </c>
-      <c r="D459" s="2" t="s">
-        <v>1400</v>
+        <v>1401</v>
+      </c>
+      <c r="D459" s="7" t="s">
+        <v>1694</v>
       </c>
       <c r="E459" s="2" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="F459" s="3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="460" spans="1:6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" ht="28">
       <c r="A460" s="3">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B460" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>1402</v>
-      </c>
-      <c r="D460" s="2" t="s">
         <v>1403</v>
+      </c>
+      <c r="D460" s="7" t="s">
+        <v>1695</v>
       </c>
       <c r="E460" s="2" t="s">
         <v>1404</v>
       </c>
       <c r="F460" s="3">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="461" spans="1:6" ht="28">
       <c r="A461" s="3">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B461" s="3">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>1405</v>
       </c>
       <c r="D461" s="7" t="s">
-        <v>1701</v>
+        <v>1696</v>
       </c>
       <c r="E461" s="2" t="s">
         <v>1406</v>
       </c>
       <c r="F461" s="3">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="462" spans="1:6" ht="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6">
       <c r="A462" s="3">
-        <v>493</v>
-      </c>
-      <c r="B462" s="3">
-        <v>7</v>
+        <v>495</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>1407</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>1407</v>
-      </c>
-      <c r="D462" s="7" t="s">
-        <v>1702</v>
+        <v>1408</v>
+      </c>
+      <c r="D462" s="2" t="s">
+        <v>1409</v>
       </c>
       <c r="E462" s="2" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="F462" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="463" spans="1:6" ht="28">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6">
       <c r="A463" s="3">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B463" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C463" s="2" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D463" s="7" t="s">
-        <v>1703</v>
+        <v>1411</v>
+      </c>
+      <c r="D463" s="2" t="s">
+        <v>1412</v>
       </c>
       <c r="E463" s="2" t="s">
-        <v>1410</v>
+        <v>1413</v>
       </c>
       <c r="F463" s="3">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="464" spans="1:6">
       <c r="A464" s="3">
-        <v>495</v>
-      </c>
-      <c r="B464" s="2" t="s">
-        <v>1411</v>
+        <v>497</v>
+      </c>
+      <c r="B464" s="3">
+        <v>8</v>
       </c>
       <c r="C464" s="2" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="E464" s="2" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="F464" s="3">
-        <v>78</v>
+        <v>35</v>
       </c>
     </row>
     <row r="465" spans="1:6">
       <c r="A465" s="3">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B465" s="3">
         <v>8</v>
       </c>
       <c r="C465" s="2" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="E465" s="2" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="F465" s="3">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="466" spans="1:6">
       <c r="A466" s="3">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B466" s="3">
         <v>8</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="E466" s="2" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="F466" s="3">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="467" spans="1:6">
       <c r="A467" s="3">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B467" s="3">
         <v>8</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="E467" s="2" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="F467" s="3">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="468" spans="1:6">
       <c r="A468" s="3">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B468" s="3">
         <v>8</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="E468" s="2" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="F468" s="3">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="469" spans="1:6">
       <c r="A469" s="3">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B469" s="3">
         <v>8</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="E469" s="2" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="F469" s="3">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="470" spans="1:6">
       <c r="A470" s="3">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B470" s="3">
         <v>8</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="E470" s="2" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="F470" s="3">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="471" spans="1:6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" ht="28">
       <c r="A471" s="3">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B471" s="3">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>1433</v>
-      </c>
-      <c r="D471" s="2" t="s">
-        <v>1434</v>
+        <v>1435</v>
+      </c>
+      <c r="D471" s="7" t="s">
+        <v>1697</v>
       </c>
       <c r="E471" s="2" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="F471" s="3">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="472" spans="1:6">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" ht="28">
       <c r="A472" s="3">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B472" s="3">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>1436</v>
-      </c>
-      <c r="D472" s="2" t="s">
         <v>1437</v>
+      </c>
+      <c r="D472" s="7" t="s">
+        <v>1698</v>
       </c>
       <c r="E472" s="2" t="s">
         <v>1438</v>
       </c>
       <c r="F472" s="3">
-        <v>7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="473" spans="1:6" ht="28">
       <c r="A473" s="3">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B473" s="3">
         <v>22</v>
@@ -15053,18 +15072,18 @@
         <v>1439</v>
       </c>
       <c r="D473" s="7" t="s">
-        <v>1704</v>
+        <v>1699</v>
       </c>
       <c r="E473" s="2" t="s">
         <v>1440</v>
       </c>
       <c r="F473" s="3">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="474" spans="1:6" ht="28">
       <c r="A474" s="3">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B474" s="3">
         <v>22</v>
@@ -15073,18 +15092,18 @@
         <v>1441</v>
       </c>
       <c r="D474" s="7" t="s">
-        <v>1705</v>
+        <v>1700</v>
       </c>
       <c r="E474" s="2" t="s">
         <v>1442</v>
       </c>
       <c r="F474" s="3">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="475" spans="1:6" ht="28">
       <c r="A475" s="3">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B475" s="3">
         <v>22</v>
@@ -15093,18 +15112,18 @@
         <v>1443</v>
       </c>
       <c r="D475" s="7" t="s">
-        <v>1706</v>
+        <v>1701</v>
       </c>
       <c r="E475" s="2" t="s">
         <v>1444</v>
       </c>
       <c r="F475" s="3">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="476" spans="1:6" ht="28">
       <c r="A476" s="3">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B476" s="3">
         <v>22</v>
@@ -15113,18 +15132,18 @@
         <v>1445</v>
       </c>
       <c r="D476" s="7" t="s">
-        <v>1707</v>
+        <v>1702</v>
       </c>
       <c r="E476" s="2" t="s">
         <v>1446</v>
       </c>
       <c r="F476" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="477" spans="1:6" ht="28">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6">
       <c r="A477" s="3">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B477" s="3">
         <v>22</v>
@@ -15132,1340 +15151,1299 @@
       <c r="C477" s="2" t="s">
         <v>1447</v>
       </c>
-      <c r="D477" s="7" t="s">
-        <v>1708</v>
+      <c r="D477" s="2" t="s">
+        <v>1448</v>
       </c>
       <c r="E477" s="2" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="F477" s="3">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="478" spans="1:6" ht="28">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6">
       <c r="A478" s="3">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B478" s="3">
         <v>22</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>1449</v>
-      </c>
-      <c r="D478" s="7" t="s">
-        <v>1709</v>
+        <v>1450</v>
+      </c>
+      <c r="D478" s="2" t="s">
+        <v>1451</v>
       </c>
       <c r="E478" s="2" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="F478" s="3">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="479" spans="1:6">
       <c r="A479" s="3">
-        <v>510</v>
-      </c>
-      <c r="B479" s="3">
-        <v>22</v>
+        <v>512</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>1453</v>
       </c>
       <c r="C479" s="2" t="s">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="D479" s="2" t="s">
-        <v>1452</v>
+        <v>1455</v>
       </c>
       <c r="E479" s="2" t="s">
-        <v>1453</v>
+        <v>1456</v>
       </c>
       <c r="F479" s="3">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="480" spans="1:6">
       <c r="A480" s="3">
-        <v>511</v>
-      </c>
-      <c r="B480" s="3">
-        <v>22</v>
+        <v>513</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>1457</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>1454</v>
+        <v>1458</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>1455</v>
+        <v>1459</v>
       </c>
       <c r="E480" s="2" t="s">
-        <v>1456</v>
+        <v>1460</v>
       </c>
       <c r="F480" s="3">
-        <v>24</v>
+        <v>53</v>
       </c>
     </row>
     <row r="481" spans="1:6">
       <c r="A481" s="3">
-        <v>512</v>
-      </c>
-      <c r="B481" s="2" t="s">
-        <v>1457</v>
+        <v>515</v>
+      </c>
+      <c r="B481" s="3">
+        <v>5</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>1458</v>
+        <v>1461</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>1459</v>
+        <v>1462</v>
       </c>
       <c r="E481" s="2" t="s">
-        <v>1460</v>
+        <v>1463</v>
       </c>
       <c r="F481" s="3">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="482" spans="1:6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" ht="28">
       <c r="A482" s="3">
-        <v>513</v>
-      </c>
-      <c r="B482" s="2" t="s">
-        <v>1461</v>
+        <v>518</v>
+      </c>
+      <c r="B482" s="3">
+        <v>5</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>1462</v>
-      </c>
-      <c r="D482" s="2" t="s">
-        <v>1463</v>
+        <v>1464</v>
+      </c>
+      <c r="D482" s="7" t="s">
+        <v>1703</v>
       </c>
       <c r="E482" s="2" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="F482" s="3">
-        <v>53</v>
+        <v>7</v>
       </c>
     </row>
     <row r="483" spans="1:6">
       <c r="A483" s="3">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B483" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="E483" s="2" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="F483" s="3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="484" spans="1:6" ht="28">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6">
       <c r="A484" s="3">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B484" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C484" s="2" t="s">
-        <v>1468</v>
-      </c>
-      <c r="D484" s="7" t="s">
-        <v>1710</v>
+        <v>1469</v>
+      </c>
+      <c r="D484" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="E484" s="2" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="F484" s="3">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="485" spans="1:6">
       <c r="A485" s="3">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B485" s="3">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C485" s="2" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="E485" s="2" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="F485" s="3">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="486" spans="1:6">
       <c r="A486" s="3">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B486" s="3">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="E486" s="2" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="F486" s="3">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="487" spans="1:6">
       <c r="A487" s="3">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B487" s="3">
         <v>20</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="D487" s="2" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="E487" s="2" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="F487" s="3">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="488" spans="1:6">
       <c r="A488" s="3">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B488" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="D488" s="2" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="E488" s="2" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="F488" s="3">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="489" spans="1:6">
       <c r="A489" s="3">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B489" s="3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="D489" s="2" t="s">
-        <v>1482</v>
+        <v>1485</v>
       </c>
       <c r="E489" s="2" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="F489" s="3">
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
     <row r="490" spans="1:6">
       <c r="A490" s="3">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B490" s="3">
         <v>1</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="D490" s="2" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="E490" s="2" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="F490" s="3">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="491" spans="1:6">
       <c r="A491" s="3">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B491" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="D491" s="2" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="E491" s="2" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="F491" s="3">
-        <v>47</v>
+        <v>75</v>
       </c>
     </row>
     <row r="492" spans="1:6">
       <c r="A492" s="3">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B492" s="3">
         <v>1</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="D492" s="2" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="E492" s="2" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="F492" s="3">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="493" spans="1:6">
       <c r="A493" s="3">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B493" s="3">
         <v>1</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="E493" s="2" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="F493" s="3">
-        <v>75</v>
+        <v>47</v>
       </c>
     </row>
     <row r="494" spans="1:6">
       <c r="A494" s="3">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B494" s="3">
         <v>1</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="E494" s="2" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="F494" s="3">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="495" spans="1:6">
       <c r="A495" s="3">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B495" s="3">
         <v>1</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="D495" s="2" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="E495" s="2" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="F495" s="3">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="496" spans="1:6">
       <c r="A496" s="3">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B496" s="3">
         <v>1</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="D496" s="2" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="E496" s="2" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="F496" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="497" spans="1:6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" ht="28">
       <c r="A497" s="3">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B497" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>1506</v>
-      </c>
-      <c r="D497" s="2" t="s">
-        <v>1507</v>
+        <v>1508</v>
+      </c>
+      <c r="D497" s="7" t="s">
+        <v>1704</v>
       </c>
       <c r="E497" s="2" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="F497" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="498" spans="1:6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" ht="28">
       <c r="A498" s="3">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B498" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>1509</v>
-      </c>
-      <c r="D498" s="2" t="s">
         <v>1510</v>
+      </c>
+      <c r="D498" s="7" t="s">
+        <v>1705</v>
       </c>
       <c r="E498" s="2" t="s">
         <v>1511</v>
       </c>
       <c r="F498" s="3">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="499" spans="1:6" ht="28">
       <c r="A499" s="3">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B499" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C499" s="2" t="s">
         <v>1512</v>
       </c>
       <c r="D499" s="7" t="s">
-        <v>1711</v>
+        <v>1706</v>
       </c>
       <c r="E499" s="2" t="s">
         <v>1513</v>
       </c>
       <c r="F499" s="3">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="500" spans="1:6" ht="28">
       <c r="A500" s="3">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B500" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C500" s="2" t="s">
         <v>1514</v>
       </c>
       <c r="D500" s="7" t="s">
-        <v>1712</v>
+        <v>1707</v>
       </c>
       <c r="E500" s="2" t="s">
         <v>1515</v>
       </c>
       <c r="F500" s="3">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="501" spans="1:6">
       <c r="A501" s="3">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B501" s="3">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C501" s="2" t="s">
         <v>1516</v>
       </c>
       <c r="D501" s="2" t="s">
-        <v>1713</v>
+        <v>1517</v>
       </c>
       <c r="E501" s="2" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="F501" s="3">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="502" spans="1:6">
+      <c r="A502" s="3">
+        <v>540</v>
+      </c>
+      <c r="B502" s="3">
+        <v>17</v>
+      </c>
+      <c r="C502" s="2" t="s">
+        <v>1519</v>
+      </c>
       <c r="D502" s="2" t="s">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="503" spans="1:6">
+        <v>1520</v>
+      </c>
+      <c r="E502" s="2" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F502" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" ht="28">
       <c r="A503" s="3">
-        <v>538</v>
-      </c>
-      <c r="B503" s="3">
+        <v>541</v>
+      </c>
+      <c r="B503" s="2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C503" s="2" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D503" s="7" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E503" s="2" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F503" s="3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" ht="28">
+      <c r="A504" s="3">
+        <v>542</v>
+      </c>
+      <c r="B504" s="2" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C504" s="2" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D504" s="7" t="s">
+        <v>1709</v>
+      </c>
+      <c r="E504" s="2" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F504" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" ht="28">
+      <c r="A505" s="3">
+        <v>543</v>
+      </c>
+      <c r="B505" s="3">
+        <v>1</v>
+      </c>
+      <c r="C505" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D505" s="7" t="s">
+        <v>1710</v>
+      </c>
+      <c r="E505" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F505" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6">
+      <c r="A506" s="3">
+        <v>544</v>
+      </c>
+      <c r="B506" s="3">
         <v>8</v>
       </c>
-      <c r="C503" s="2" t="s">
-        <v>1519</v>
-      </c>
-      <c r="D503" s="2" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E503" s="2" t="s">
-        <v>1520</v>
-      </c>
-      <c r="F503" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="504" spans="1:6">
-      <c r="A504" s="3">
-        <v>539</v>
-      </c>
-      <c r="B504" s="3">
-        <v>17</v>
-      </c>
-      <c r="C504" s="2" t="s">
-        <v>1521</v>
-      </c>
-      <c r="D504" s="2" t="s">
-        <v>1522</v>
-      </c>
-      <c r="E504" s="2" t="s">
-        <v>1523</v>
-      </c>
-      <c r="F504" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="505" spans="1:6">
-      <c r="A505" s="3">
-        <v>540</v>
-      </c>
-      <c r="B505" s="3">
-        <v>17</v>
-      </c>
-      <c r="C505" s="2" t="s">
-        <v>1524</v>
-      </c>
-      <c r="D505" s="2" t="s">
-        <v>1525</v>
-      </c>
-      <c r="E505" s="2" t="s">
-        <v>1526</v>
-      </c>
-      <c r="F505" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="506" spans="1:6" ht="28">
-      <c r="A506" s="3">
-        <v>541</v>
-      </c>
-      <c r="B506" s="2" t="s">
-        <v>1527</v>
-      </c>
       <c r="C506" s="2" t="s">
-        <v>1528</v>
-      </c>
-      <c r="D506" s="7" t="s">
-        <v>1715</v>
+        <v>1530</v>
+      </c>
+      <c r="D506" s="2" t="s">
+        <v>1531</v>
       </c>
       <c r="E506" s="2" t="s">
-        <v>1529</v>
+        <v>1532</v>
       </c>
       <c r="F506" s="3">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="507" spans="1:6" ht="28">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6">
       <c r="A507" s="3">
-        <v>542</v>
-      </c>
-      <c r="B507" s="2" t="s">
-        <v>1530</v>
+        <v>545</v>
+      </c>
+      <c r="B507" s="3">
+        <v>8</v>
       </c>
       <c r="C507" s="2" t="s">
-        <v>1531</v>
-      </c>
-      <c r="D507" s="7" t="s">
-        <v>1716</v>
+        <v>1533</v>
+      </c>
+      <c r="D507" s="2" t="s">
+        <v>1534</v>
       </c>
       <c r="E507" s="2" t="s">
-        <v>1532</v>
+        <v>1535</v>
       </c>
       <c r="F507" s="3">
-        <v>104</v>
+        <v>34</v>
       </c>
     </row>
     <row r="508" spans="1:6" ht="28">
       <c r="A508" s="3">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B508" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C508" s="2" t="s">
-        <v>1533</v>
+        <v>1536</v>
       </c>
       <c r="D508" s="7" t="s">
-        <v>1717</v>
+        <v>1711</v>
       </c>
       <c r="E508" s="2" t="s">
-        <v>1534</v>
+        <v>1537</v>
       </c>
       <c r="F508" s="3">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="509" spans="1:6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" ht="28">
       <c r="A509" s="3">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="B509" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C509" s="2" t="s">
-        <v>1535</v>
-      </c>
-      <c r="D509" s="2" t="s">
-        <v>1536</v>
+        <v>1538</v>
+      </c>
+      <c r="D509" s="7" t="s">
+        <v>1712</v>
       </c>
       <c r="E509" s="2" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="F509" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="510" spans="1:6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" ht="28">
       <c r="A510" s="3">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B510" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C510" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="D510" s="2" t="s">
-        <v>1539</v>
+        <v>1540</v>
+      </c>
+      <c r="D510" s="7" t="s">
+        <v>1713</v>
       </c>
       <c r="E510" s="2" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="F510" s="3">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="511" spans="1:6" ht="28">
       <c r="A511" s="3">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B511" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="D511" s="7" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
       <c r="E511" s="2" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="F511" s="3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="512" spans="1:6" ht="28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6">
       <c r="A512" s="3">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B512" s="3">
         <v>5</v>
       </c>
       <c r="C512" s="2" t="s">
-        <v>1543</v>
-      </c>
-      <c r="D512" s="7" t="s">
-        <v>1719</v>
+        <v>1544</v>
+      </c>
+      <c r="D512" s="2" t="s">
+        <v>1715</v>
       </c>
       <c r="E512" s="2" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="F512" s="3">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="513" spans="1:6" ht="28">
       <c r="A513" s="3">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B513" s="3">
         <v>5</v>
       </c>
       <c r="C513" s="2" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D513" s="7" t="s">
-        <v>1720</v>
+        <v>1730</v>
       </c>
       <c r="E513" s="2" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="F513" s="3">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="514" spans="1:6" ht="28">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6">
       <c r="A514" s="3">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="B514" s="3">
         <v>5</v>
       </c>
       <c r="C514" s="2" t="s">
-        <v>1547</v>
-      </c>
-      <c r="D514" s="7" t="s">
-        <v>1721</v>
+        <v>1548</v>
+      </c>
+      <c r="D514" s="2" t="s">
+        <v>1716</v>
       </c>
       <c r="E514" s="2" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="F514" s="3">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="515" spans="1:6">
       <c r="A515" s="3">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="B515" s="3">
         <v>5</v>
       </c>
       <c r="C515" s="2" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="D515" s="2" t="s">
-        <v>1722</v>
+        <v>1551</v>
       </c>
       <c r="E515" s="2" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="F515" s="3">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="516" spans="1:6">
+      <c r="A516" s="3">
+        <v>554</v>
+      </c>
+      <c r="B516" s="3">
+        <v>5</v>
+      </c>
+      <c r="C516" s="2" t="s">
+        <v>1553</v>
+      </c>
       <c r="D516" s="2" t="s">
-        <v>1551</v>
-      </c>
-    </row>
-    <row r="517" spans="1:6">
+        <v>1554</v>
+      </c>
+      <c r="E516" s="2" t="s">
+        <v>1555</v>
+      </c>
+      <c r="F516" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" ht="28">
       <c r="A517" s="3">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="B517" s="3">
         <v>5</v>
       </c>
       <c r="C517" s="2" t="s">
-        <v>1552</v>
-      </c>
-      <c r="D517" s="2" t="s">
-        <v>1553</v>
+        <v>1556</v>
+      </c>
+      <c r="D517" s="7" t="s">
+        <v>1717</v>
       </c>
       <c r="E517" s="2" t="s">
-        <v>1554</v>
+        <v>1557</v>
       </c>
       <c r="F517" s="3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="518" spans="1:6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" ht="28">
       <c r="A518" s="3">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="B518" s="3">
         <v>5</v>
       </c>
       <c r="C518" s="2" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D518" s="2" t="s">
-        <v>1723</v>
+        <v>1558</v>
+      </c>
+      <c r="D518" s="7" t="s">
+        <v>1718</v>
       </c>
       <c r="E518" s="2" t="s">
-        <v>1556</v>
+        <v>1559</v>
       </c>
       <c r="F518" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="519" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" ht="28">
       <c r="A519" s="3">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="B519" s="3">
         <v>5</v>
       </c>
       <c r="C519" s="2" t="s">
-        <v>1557</v>
-      </c>
-      <c r="D519" s="2" t="s">
-        <v>1558</v>
+        <v>1560</v>
+      </c>
+      <c r="D519" s="7" t="s">
+        <v>1719</v>
       </c>
       <c r="E519" s="2" t="s">
-        <v>1559</v>
-      </c>
-      <c r="F519" s="3">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="520" spans="1:6">
+        <v>1561</v>
+      </c>
+      <c r="F519" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" ht="28">
       <c r="A520" s="3">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="B520" s="3">
         <v>5</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>1560</v>
-      </c>
-      <c r="D520" s="2" t="s">
-        <v>1561</v>
+        <v>1562</v>
+      </c>
+      <c r="D520" s="7" t="s">
+        <v>1720</v>
       </c>
       <c r="E520" s="2" t="s">
-        <v>1562</v>
-      </c>
-      <c r="F520" s="3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="521" spans="1:6" ht="28">
+        <v>1563</v>
+      </c>
+      <c r="F520" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6">
       <c r="A521" s="3">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B521" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C521" s="2" t="s">
-        <v>1563</v>
-      </c>
-      <c r="D521" s="7" t="s">
-        <v>1724</v>
+        <v>1564</v>
+      </c>
+      <c r="D521" s="2" t="s">
+        <v>1565</v>
       </c>
       <c r="E521" s="2" t="s">
-        <v>1564</v>
-      </c>
-      <c r="F521" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="522" spans="1:6" ht="28">
+        <v>1566</v>
+      </c>
+      <c r="F521" s="12" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6">
       <c r="A522" s="3">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B522" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D522" s="9" t="s">
-        <v>1725</v>
+        <v>1567</v>
+      </c>
+      <c r="D522" s="2" t="s">
+        <v>1568</v>
       </c>
       <c r="E522" s="2" t="s">
-        <v>1566</v>
+        <v>1569</v>
       </c>
       <c r="F522" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="523" spans="1:6" ht="28">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6">
       <c r="A523" s="3">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="B523" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C523" s="2" t="s">
-        <v>1567</v>
-      </c>
-      <c r="D523" s="7" t="s">
-        <v>1726</v>
+        <v>1570</v>
+      </c>
+      <c r="D523" s="2" t="s">
+        <v>1571</v>
       </c>
       <c r="E523" s="2" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="524" spans="1:6" ht="28">
+        <v>1572</v>
+      </c>
+      <c r="F523" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6">
       <c r="A524" s="3">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="B524" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C524" s="2" t="s">
-        <v>1569</v>
-      </c>
-      <c r="D524" s="7" t="s">
-        <v>1727</v>
+        <v>1573</v>
+      </c>
+      <c r="D524" s="2" t="s">
+        <v>1574</v>
       </c>
       <c r="E524" s="2" t="s">
-        <v>1570</v>
+        <v>1575</v>
+      </c>
+      <c r="F524" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="525" spans="1:6">
       <c r="A525" s="3">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="B525" s="3">
         <v>1</v>
       </c>
       <c r="C525" s="2" t="s">
-        <v>1571</v>
+        <v>1576</v>
       </c>
       <c r="D525" s="2" t="s">
-        <v>1572</v>
+        <v>1577</v>
       </c>
       <c r="E525" s="2" t="s">
-        <v>1573</v>
+        <v>1578</v>
+      </c>
+      <c r="F525" s="3">
+        <v>17</v>
       </c>
     </row>
     <row r="526" spans="1:6">
       <c r="A526" s="3">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B526" s="3">
         <v>1</v>
       </c>
       <c r="C526" s="2" t="s">
-        <v>1574</v>
+        <v>1579</v>
       </c>
       <c r="D526" s="2" t="s">
-        <v>1575</v>
+        <v>1580</v>
       </c>
       <c r="E526" s="2" t="s">
-        <v>1576</v>
+        <v>1581</v>
       </c>
       <c r="F526" s="3">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="527" spans="1:6">
       <c r="A527" s="3">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B527" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C527" s="2" t="s">
-        <v>1577</v>
+        <v>1582</v>
       </c>
       <c r="D527" s="2" t="s">
-        <v>1578</v>
+        <v>1721</v>
       </c>
       <c r="E527" s="2" t="s">
-        <v>1579</v>
+        <v>1583</v>
       </c>
       <c r="F527" s="3">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="528" spans="1:6">
       <c r="A528" s="3">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B528" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C528" s="2" t="s">
-        <v>1580</v>
+        <v>1584</v>
       </c>
       <c r="D528" s="2" t="s">
-        <v>1581</v>
+        <v>1722</v>
       </c>
       <c r="E528" s="2" t="s">
-        <v>1582</v>
+        <v>1585</v>
       </c>
       <c r="F528" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="529" spans="1:6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" ht="28">
       <c r="A529" s="3">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B529" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C529" s="2" t="s">
-        <v>1583</v>
-      </c>
-      <c r="D529" s="2" t="s">
-        <v>1584</v>
+        <v>1586</v>
+      </c>
+      <c r="D529" s="7" t="s">
+        <v>1723</v>
       </c>
       <c r="E529" s="2" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="F529" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="530" spans="1:6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" ht="28">
       <c r="A530" s="3">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="B530" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C530" s="2" t="s">
-        <v>1586</v>
-      </c>
-      <c r="D530" s="2" t="s">
-        <v>1587</v>
+        <v>1588</v>
+      </c>
+      <c r="D530" s="7" t="s">
+        <v>1724</v>
       </c>
       <c r="E530" s="2" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="F530" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="531" spans="1:6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" ht="28">
       <c r="A531" s="3">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B531" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C531" s="2" t="s">
-        <v>1589</v>
-      </c>
-      <c r="D531" s="2" t="s">
-        <v>1728</v>
+        <v>1590</v>
+      </c>
+      <c r="D531" s="7" t="s">
+        <v>1725</v>
       </c>
       <c r="E531" s="2" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="F531" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="532" spans="1:6">
+    <row r="532" spans="1:6" ht="28">
       <c r="A532" s="3">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="B532" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>1591</v>
-      </c>
-      <c r="D532" s="2" t="s">
-        <v>1729</v>
+        <v>1592</v>
+      </c>
+      <c r="D532" s="7" t="s">
+        <v>1726</v>
       </c>
       <c r="E532" s="2" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="F532" s="3">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="533" spans="1:6" ht="28">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6">
       <c r="A533" s="3">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="B533" s="3">
         <v>6</v>
       </c>
       <c r="C533" s="2" t="s">
-        <v>1593</v>
-      </c>
-      <c r="D533" s="7" t="s">
-        <v>1730</v>
+        <v>1594</v>
+      </c>
+      <c r="D533" s="2" t="s">
+        <v>1595</v>
       </c>
       <c r="E533" s="2" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="F533" s="3">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="534" spans="1:6" ht="28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6">
       <c r="A534" s="3">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="B534" s="3">
         <v>6</v>
       </c>
       <c r="C534" s="2" t="s">
-        <v>1595</v>
-      </c>
-      <c r="D534" s="7" t="s">
-        <v>1731</v>
+        <v>1597</v>
+      </c>
+      <c r="D534" s="2" t="s">
+        <v>1598</v>
       </c>
       <c r="E534" s="2" t="s">
-        <v>1596</v>
+        <v>1599</v>
       </c>
       <c r="F534" s="3">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="535" spans="1:6" ht="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6">
       <c r="A535" s="3">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="B535" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C535" s="2" t="s">
-        <v>1597</v>
-      </c>
-      <c r="D535" s="7" t="s">
-        <v>1732</v>
+        <v>1600</v>
+      </c>
+      <c r="D535" s="2" t="s">
+        <v>1601</v>
       </c>
       <c r="E535" s="2" t="s">
-        <v>1598</v>
+        <v>1602</v>
       </c>
       <c r="F535" s="3">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="536" spans="1:6" ht="28">
       <c r="A536" s="3">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="B536" s="3">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C536" s="2" t="s">
-        <v>1599</v>
+        <v>1603</v>
       </c>
       <c r="D536" s="7" t="s">
-        <v>1733</v>
+        <v>1727</v>
       </c>
       <c r="E536" s="2" t="s">
-        <v>1600</v>
+        <v>1604</v>
       </c>
       <c r="F536" s="3">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="537" spans="1:6">
       <c r="A537" s="3">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="B537" s="3">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C537" s="2" t="s">
-        <v>1601</v>
+        <v>1605</v>
       </c>
       <c r="D537" s="2" t="s">
-        <v>1602</v>
+        <v>1606</v>
       </c>
       <c r="E537" s="2" t="s">
-        <v>1603</v>
+        <v>1607</v>
       </c>
       <c r="F537" s="3">
-        <v>24</v>
+        <v>65</v>
       </c>
     </row>
     <row r="538" spans="1:6">
       <c r="A538" s="3">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="B538" s="3">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C538" s="2" t="s">
-        <v>1604</v>
+        <v>1608</v>
       </c>
       <c r="D538" s="2" t="s">
-        <v>1605</v>
+        <v>1609</v>
       </c>
       <c r="E538" s="2" t="s">
-        <v>1606</v>
+        <v>1610</v>
       </c>
       <c r="F538" s="3">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="539" spans="1:6">
       <c r="A539" s="3">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="B539" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C539" s="2" t="s">
-        <v>1607</v>
+        <v>1611</v>
       </c>
       <c r="D539" s="2" t="s">
-        <v>1608</v>
+        <v>1612</v>
       </c>
       <c r="E539" s="2" t="s">
-        <v>1609</v>
-      </c>
-      <c r="F539" s="3">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="540" spans="1:6" ht="28">
+        <v>1613</v>
+      </c>
+      <c r="F539" s="2" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6">
       <c r="A540" s="3">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="B540" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C540" s="2" t="s">
-        <v>1610</v>
-      </c>
-      <c r="D540" s="7" t="s">
-        <v>1734</v>
+        <v>1615</v>
+      </c>
+      <c r="D540" s="2" t="s">
+        <v>1616</v>
       </c>
       <c r="E540" s="2" t="s">
-        <v>1611</v>
+        <v>1617</v>
       </c>
       <c r="F540" s="3">
-        <v>27</v>
+        <v>82</v>
       </c>
     </row>
     <row r="541" spans="1:6">
       <c r="A541" s="3">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="B541" s="3">
         <v>18</v>
       </c>
       <c r="C541" s="2" t="s">
-        <v>1612</v>
+        <v>1618</v>
       </c>
       <c r="D541" s="2" t="s">
-        <v>1613</v>
+        <v>1619</v>
       </c>
       <c r="E541" s="2" t="s">
-        <v>1614</v>
+        <v>1620</v>
       </c>
       <c r="F541" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="542" spans="1:6">
-      <c r="A542" s="3">
-        <v>576</v>
-      </c>
-      <c r="B542" s="3">
-        <v>18</v>
-      </c>
-      <c r="C542" s="2" t="s">
-        <v>1615</v>
-      </c>
-      <c r="D542" s="2" t="s">
-        <v>1616</v>
-      </c>
-      <c r="E542" s="2" t="s">
-        <v>1617</v>
-      </c>
-      <c r="F542" s="3">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="543" spans="1:6">
-      <c r="A543" s="3">
-        <v>577</v>
-      </c>
-      <c r="B543" s="3">
-        <v>1</v>
-      </c>
-      <c r="C543" s="2" t="s">
-        <v>1618</v>
-      </c>
-      <c r="D543" s="2" t="s">
-        <v>1619</v>
-      </c>
-      <c r="E543" s="2" t="s">
-        <v>1620</v>
-      </c>
-      <c r="F543" s="2" t="s">
+      <c r="A543" s="4" t="s">
         <v>1621</v>
-      </c>
-    </row>
-    <row r="544" spans="1:6">
-      <c r="A544" s="3">
-        <v>578</v>
-      </c>
-      <c r="B544" s="3">
-        <v>18</v>
-      </c>
-      <c r="C544" s="2" t="s">
-        <v>1622</v>
-      </c>
-      <c r="D544" s="2" t="s">
-        <v>1623</v>
-      </c>
-      <c r="E544" s="2" t="s">
-        <v>1624</v>
-      </c>
-      <c r="F544" s="3">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="545" spans="1:6">
-      <c r="A545" s="3">
-        <v>579</v>
-      </c>
-      <c r="B545" s="3">
-        <v>18</v>
-      </c>
-      <c r="C545" s="2" t="s">
-        <v>1625</v>
-      </c>
-      <c r="D545" s="2" t="s">
-        <v>1626</v>
-      </c>
-      <c r="E545" s="2" t="s">
-        <v>1627</v>
-      </c>
-      <c r="F545" s="3">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="547" spans="1:6">
-      <c r="A547" s="4" t="s">
-        <v>1628</v>
       </c>
     </row>
   </sheetData>
